--- a/biology/Histoire de la zoologie et de la botanique/Richard_Taylor_(1781-1858)/Richard_Taylor_(1781-1858).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Taylor_(1781-1858)/Richard_Taylor_(1781-1858).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Taylor est un naturaliste et un éditeur de revues scientifiques britannique, né en 1781 et mort en 1858.
 Il fait paraître la première édition de Philosophical Magazine en 1798 et commence à publier Annals of Natural History en 1838. Il édite et publie Scientific Memoirs, Selected from the Transactions of Foreign Academies of Science de 1837 à 1852.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 31 mars 2007).</t>
         </is>
